--- a/Decoder-Only/GPT/data/Test2.xlsx
+++ b/Decoder-Only/GPT/data/Test2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marietano/Downloads/Dissertation stuff/Dissertation (git)/Decoder-Only/GPT/data/results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marietano/Downloads/Dissertation stuff/Dissertation (git)/Decoder-Only/GPT/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{987AFD88-D58C-8F47-B540-85BD479DA171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64820FCD-EB71-7A4A-B7D8-2B66ED425E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4420" yWindow="840" windowWidth="24480" windowHeight="14880" xr2:uid="{2127AF1E-C769-0345-A569-BDCCABCC1C91}"/>
+    <workbookView xWindow="4320" yWindow="840" windowWidth="24480" windowHeight="14880" xr2:uid="{2127AF1E-C769-0345-A569-BDCCABCC1C91}"/>
   </bookViews>
   <sheets>
     <sheet name="Gold" sheetId="1" r:id="rId1"/>
@@ -1920,10 +1920,10 @@
   <dimension ref="A1:AC295"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B94" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B281" sqref="B60:B281"/>
+      <selection pane="bottomRight" activeCell="F98" sqref="F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3467,7 +3467,7 @@
       </c>
       <c r="B18" s="3" t="str" cm="1">
         <f t="array" ref="B18">_xlfn.TEXTJOIN(", ", TRUE, IF(C18:AC18=1, C$1:AC$1, ""))</f>
-        <v>double-object</v>
+        <v>double-object, bare-got</v>
       </c>
       <c r="C18" s="2">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:29" ht="85" x14ac:dyDescent="0.2">
@@ -4007,7 +4007,7 @@
       </c>
       <c r="B24" s="3" t="str" cm="1">
         <f t="array" ref="B24">_xlfn.TEXTJOIN(", ", TRUE, IF(C24:AC24=1, C$1:AC$1, ""))</f>
-        <v>zero-3sg-pres-s</v>
+        <v/>
       </c>
       <c r="C24" s="2">
         <v>0</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="O24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P24" s="2">
         <v>0</v>
@@ -6167,7 +6167,7 @@
       </c>
       <c r="B48" s="3" t="str" cm="1">
         <f t="array" ref="B48">_xlfn.TEXTJOIN(", ", TRUE, IF(C48:AC48=1, C$1:AC$1, ""))</f>
-        <v/>
+        <v>zero-pl-s, verb-stem</v>
       </c>
       <c r="C48" s="2">
         <v>0</v>
@@ -6212,7 +6212,7 @@
         <v>0</v>
       </c>
       <c r="Q48" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R48" s="2">
         <v>0</v>
@@ -6236,7 +6236,7 @@
         <v>0</v>
       </c>
       <c r="Y48" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z48" s="2">
         <v>0</v>
@@ -6617,10 +6617,10 @@
       </c>
       <c r="B53" s="3" t="str" cm="1">
         <f t="array" ref="B53">_xlfn.TEXTJOIN(", ", TRUE, IF(C53:AC53=1, C$1:AC$1, ""))</f>
-        <v/>
+        <v>zero-poss</v>
       </c>
       <c r="C53" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D53" s="2">
         <v>0</v>
@@ -7787,7 +7787,7 @@
       </c>
       <c r="B66" s="3" t="str" cm="1">
         <f t="array" ref="B66">_xlfn.TEXTJOIN(", ", TRUE, IF(C66:AC66=1, C$1:AC$1, ""))</f>
-        <v>zero-3sg-pres-s</v>
+        <v>verb-stem</v>
       </c>
       <c r="C66" s="2">
         <v>0</v>
@@ -7826,37 +7826,37 @@
         <v>0</v>
       </c>
       <c r="O66" s="2">
+        <v>0</v>
+      </c>
+      <c r="P66" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="2">
+        <v>0</v>
+      </c>
+      <c r="R66" s="2">
+        <v>0</v>
+      </c>
+      <c r="S66" s="2">
+        <v>0</v>
+      </c>
+      <c r="T66" s="2">
+        <v>0</v>
+      </c>
+      <c r="U66" s="2">
+        <v>0</v>
+      </c>
+      <c r="V66" s="2">
+        <v>0</v>
+      </c>
+      <c r="W66" s="2">
+        <v>0</v>
+      </c>
+      <c r="X66" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y66" s="2">
         <v>1</v>
-      </c>
-      <c r="P66" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q66" s="2">
-        <v>0</v>
-      </c>
-      <c r="R66" s="2">
-        <v>0</v>
-      </c>
-      <c r="S66" s="2">
-        <v>0</v>
-      </c>
-      <c r="T66" s="2">
-        <v>0</v>
-      </c>
-      <c r="U66" s="2">
-        <v>0</v>
-      </c>
-      <c r="V66" s="2">
-        <v>0</v>
-      </c>
-      <c r="W66" s="2">
-        <v>0</v>
-      </c>
-      <c r="X66" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y66" s="2">
-        <v>0</v>
       </c>
       <c r="Z66" s="2">
         <v>0</v>
@@ -9227,7 +9227,7 @@
       </c>
       <c r="B82" s="3" t="str" cm="1">
         <f t="array" ref="B82">_xlfn.TEXTJOIN(", ", TRUE, IF(C82:AC82=1, C$1:AC$1, ""))</f>
-        <v/>
+        <v>zero-rel-pronoun</v>
       </c>
       <c r="C82" s="2">
         <v>0</v>
@@ -9302,7 +9302,7 @@
         <v>0</v>
       </c>
       <c r="AA82" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB82" s="2">
         <v>0</v>
